--- a/2021_NewYearTrip.xlsx
+++ b/2021_NewYearTrip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\other\Trip\2021NewYear宜蘭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\FIM_SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,10 @@
   </si>
   <si>
     <t>12/30(四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1(六)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1016,7 +1020,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -1025,100 +1055,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1130,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,12 +1187,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,94 +1211,118 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1344,134 +1343,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1504,7 +1500,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>332449</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>104345</xdr:rowOff>
+      <xdr:rowOff>85295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,231 +2187,231 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="78" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="52" customWidth="1"/>
     <col min="3" max="3" width="43.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="33" customWidth="1"/>
     <col min="7" max="7" width="69" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="12">
         <v>112</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="48"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="48" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="31.5">
-      <c r="A6" s="63"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="48" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="61" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="66" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="56" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="47.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="48" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="62" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="63" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="109" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="64" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="63" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="31.5">
-      <c r="A14" s="63"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="110"/>
+      <c r="B14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="110" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="14" t="s">
         <v>51</v>
       </c>
@@ -2423,14 +2419,14 @@
         <v>52</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="35">
+      <c r="F15" s="55">
         <v>25</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="14" t="s">
         <v>53</v>
       </c>
@@ -2438,12 +2434,12 @@
       <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -2451,12 +2447,12 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="32.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="14" t="s">
         <v>101</v>
       </c>
@@ -2464,47 +2460,47 @@
       <c r="E18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="42" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="14"/>
       <c r="D19" s="17"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="49"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="102"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="89"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2512,230 +2508,230 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="90" t="s">
+      <c r="F22" s="55"/>
+      <c r="G22" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="89"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="90"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="89"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="90"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="99" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="59" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="101" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="94" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="60" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="91"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="89"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="99" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="59" t="s">
         <v>116</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="89"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="89"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="47.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="42" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="89"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="32.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="42" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="89"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="91"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="111">
-        <v>44197</v>
-      </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="99"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1">
+      <c r="A35" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="88"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="112"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="58"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="102"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="112"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="25"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="112"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="72" t="s">
+      <c r="A38" s="116"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="77" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="72" t="s">
+      <c r="F38" s="55"/>
+      <c r="G38" s="103" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="112"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="80" t="s">
+      <c r="A39" s="116"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="78" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="112"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="73" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="79" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="104"/>
     </row>
     <row r="41" spans="1:7" ht="60">
-      <c r="A41" s="112"/>
-      <c r="B41" s="79" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -2743,60 +2739,60 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="82" t="s">
+      <c r="G41" s="105" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="112"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="24"/>
       <c r="D42" s="17"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="25"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="112"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="9"/>
       <c r="D43" s="17"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="25"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="112"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="9"/>
       <c r="D44" s="17"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="112"/>
-      <c r="B45" s="76" t="s">
+      <c r="A45" s="116"/>
+      <c r="B45" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="43" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="42" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="112"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="9" t="s">
         <v>44</v>
       </c>
@@ -2805,43 +2801,43 @@
       <c r="F46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="113"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="15"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="25"/>
+      <c r="G46" s="41"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A47" s="117"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" thickTop="1">
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="87"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="15"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="25"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="87"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="15"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="25"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2856,7 +2852,7 @@
     <hyperlink ref="C12" r:id="rId1" display="https://udn.com/search/tagging/1013/%E6%B9%AF%E5%8C%85"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -2892,51 +2888,51 @@
     <row r="5" spans="1:2" ht="31.5" customHeight="1"/>
     <row r="15" spans="1:2" ht="17.25" thickBot="1"/>
     <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:1" ht="17.25" thickBot="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3180,30 +3176,30 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17.25" thickTop="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="32"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="32"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="32"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="32"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="32"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="32"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3261,12 +3257,12 @@
       <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="14">
         <f>SUM(1280+1600-1000)</f>
         <v>1880</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
       <c r="F2" s="14">
@@ -3281,19 +3277,19 @@
       <c r="A3" s="16">
         <v>44515</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="36">
         <v>200</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="36">
         <v>200</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -3346,16 +3342,16 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="15"/>
       <c r="C10" s="8"/>
       <c r="D10" s="15"/>
@@ -3364,7 +3360,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="66"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="15"/>
       <c r="C11" s="8"/>
       <c r="D11" s="15"/>
@@ -3373,7 +3369,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="66"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="15"/>
       <c r="C12" s="8"/>
       <c r="D12" s="15"/>
@@ -3382,7 +3378,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="66"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="15"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -3391,7 +3387,7 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="66"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="15"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -3400,7 +3396,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="66"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8"/>
       <c r="D15" s="15"/>
@@ -3409,7 +3405,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="66"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="15"/>
@@ -3418,7 +3414,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="66"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="15"/>
@@ -3427,7 +3423,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="66"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="15"/>
@@ -3436,7 +3432,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="67"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="15"/>
@@ -3445,7 +3441,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="15"/>
       <c r="C20" s="8"/>
       <c r="D20" s="15"/>
@@ -3454,7 +3450,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="66"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="15"/>
@@ -3463,7 +3459,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="66"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="15"/>
@@ -3472,7 +3468,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="66"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="15"/>
@@ -3481,7 +3477,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="66"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="15"/>
       <c r="C24" s="8"/>
       <c r="D24" s="15"/>
@@ -3490,7 +3486,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="66"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="15"/>
       <c r="C25" s="8"/>
       <c r="D25" s="15"/>
@@ -3499,7 +3495,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="66"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="15"/>
       <c r="C26" s="23"/>
       <c r="D26" s="20"/>
@@ -3508,7 +3504,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="66"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="15"/>
@@ -3517,7 +3513,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="66"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="15"/>
       <c r="C28" s="8"/>
       <c r="D28" s="15"/>
@@ -3526,7 +3522,7 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="66"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="15"/>
       <c r="C29" s="8"/>
       <c r="D29" s="15"/>
@@ -3535,7 +3531,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="66"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="15"/>
       <c r="C30" s="8"/>
       <c r="D30" s="15"/>
@@ -3544,7 +3540,7 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="66"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="15"/>
       <c r="C31" s="8"/>
       <c r="D31" s="15"/>
@@ -3553,7 +3549,7 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="66"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="15"/>
       <c r="C32" s="8"/>
       <c r="D32" s="15"/>
@@ -3562,7 +3558,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="66"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
       <c r="D33" s="15"/>
@@ -3571,7 +3567,7 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="67"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="15"/>
       <c r="C34" s="23"/>
       <c r="D34" s="20"/>
@@ -3580,7 +3576,7 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="65"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="15"/>
       <c r="C35" s="8"/>
       <c r="D35" s="15"/>
@@ -3589,7 +3585,7 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="66"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="15"/>
       <c r="C36" s="8"/>
       <c r="D36" s="15"/>
@@ -3598,7 +3594,7 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="66"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="15"/>
       <c r="C37" s="8"/>
       <c r="D37" s="15"/>
@@ -3607,7 +3603,7 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="66"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="15"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
@@ -3616,7 +3612,7 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="67"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="15"/>
       <c r="C39" s="8"/>
       <c r="D39" s="15"/>
